--- a/APM files/129109237/129109237 EXPORT 3 EPC template.xlsx
+++ b/APM files/129109237/129109237 EXPORT 3 EPC template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\dev\workspace\APM files\129109237\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A2BE39-B123-4BC0-9F4C-F4CFD026ED68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2DE20F-5623-4174-A5C0-C28267946838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4185" yWindow="3615" windowWidth="23175" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="22440" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -388,7 +388,7 @@
   <dimension ref="A1:A39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
